--- a/Tools/Luban/Datas/_Enums.xlsx
+++ b/Tools/Luban/Datas/_Enums.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Godot\GameTemplate\Tools\Luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C7D9454-BFE2-4558-BBC6-6349222ACDB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E21BCFFF-9332-4643-A39F-01A149ED8CA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4247" yWindow="2856" windowWidth="17426" windowHeight="9051" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -83,7 +83,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,13 +101,19 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="HarmonyOS Sans SC Medium"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Dream Han Sans J W18"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -116,8 +122,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79995117038483843"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor theme="0" tint="-0.34998626667073579"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
       </patternFill>
     </fill>
   </fills>
@@ -131,47 +143,39 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="浅灰" xfId="2" xr:uid="{79E87B9F-9422-4D60-8E16-B4B3802703E7}"/>
+    <cellStyle name="深灰" xfId="1" xr:uid="{231B26CC-7F0C-4EFE-9A2D-94EF4462EA8C}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -444,97 +448,90 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.149999999999999" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="20.88671875" customWidth="1"/>
-    <col min="4" max="5" width="14.109375" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" customWidth="1"/>
-    <col min="7" max="7" width="5" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" customWidth="1"/>
-    <col min="9" max="9" width="9" customWidth="1"/>
-    <col min="10" max="10" width="12.109375" customWidth="1"/>
-    <col min="11" max="11" width="15.109375" customWidth="1"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="19" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.88671875" style="2" customWidth="1"/>
+    <col min="4" max="5" width="14.109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9" style="2" customWidth="1"/>
+    <col min="10" max="10" width="12.109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="15.109375" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="99.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" s="1" customFormat="1" ht="99.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
         <v>15</v>
       </c>
@@ -547,25 +544,6 @@
       <c r="K3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="4"/>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H8" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Tools/Luban/Datas/_Enums.xlsx
+++ b/Tools/Luban/Datas/_Enums.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Godot\GameTemplate\Tools\Luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E21BCFFF-9332-4643-A39F-01A149ED8CA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A272346-7BA6-44AE-A25B-F9392EAA80E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>##var</t>
   </si>
@@ -77,6 +77,18 @@
   </si>
   <si>
     <t>注释</t>
+  </si>
+  <si>
+    <t>Combat.DamageType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Combat.DefenseType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -448,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.149999999999999" x14ac:dyDescent="0.45"/>
@@ -545,6 +557,34 @@
         <v>18</v>
       </c>
     </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H1:L1"/>

--- a/Tools/Luban/Datas/_Enums.xlsx
+++ b/Tools/Luban/Datas/_Enums.xlsx
@@ -1,26 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Godot\GameTemplate\Tools\Luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A272346-7BA6-44AE-A25B-F9392EAA80E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C95DAA-08EE-4AE8-9A4D-6B750D409FB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Commons" sheetId="3" r:id="rId1"/>
+    <sheet name="Combat" sheetId="1" r:id="rId2"/>
+    <sheet name="Stats" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="26">
   <si>
     <t>##var</t>
   </si>
@@ -87,7 +89,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Combat.DefenseType</t>
+    <t>Stats.StatType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stats.VitalType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Health</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxHealth</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -459,11 +477,119 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{411FA984-8D22-40FD-9A22-268B547E2404}">
+  <dimension ref="A1:L3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.149999999999999" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="19" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.88671875" style="2" customWidth="1"/>
+    <col min="4" max="5" width="14.109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9" style="2"/>
+    <col min="10" max="10" width="12.109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="15.109375" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="1" customFormat="1" ht="99.1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H1:L1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B5" sqref="B5:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.149999999999999" x14ac:dyDescent="0.45"/>
@@ -571,20 +697,6 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H1:L1"/>
@@ -593,4 +705,145 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61F18463-514A-4928-8B8E-48B2B83E3832}">
+  <dimension ref="A1:L7"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.149999999999999" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="24.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.88671875" style="2" customWidth="1"/>
+    <col min="4" max="5" width="14.109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9" style="2"/>
+    <col min="10" max="10" width="12.109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="15.109375" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="1" customFormat="1" ht="99.1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="H5" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H1:L1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Tools/Luban/Datas/_Enums.xlsx
+++ b/Tools/Luban/Datas/_Enums.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Godot\GameTemplate\Tools\Luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C95DAA-08EE-4AE8-9A4D-6B750D409FB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0CD865C-DDB3-4DF3-BA8C-14CA18D7F8BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commons" sheetId="3" r:id="rId1"/>
     <sheet name="Combat" sheetId="1" r:id="rId2"/>
-    <sheet name="Stats" sheetId="2" r:id="rId3"/>
+    <sheet name="Items" sheetId="4" r:id="rId3"/>
+    <sheet name="Stats" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="28">
   <si>
     <t>##var</t>
   </si>
@@ -106,6 +107,14 @@
   </si>
   <si>
     <t>MaxHealth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items.ItemType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Misc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -588,8 +597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:H5"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.149999999999999" x14ac:dyDescent="0.45"/>
@@ -708,11 +717,133 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{536F8291-1589-45A0-BDBE-BD5ED86364AC}">
+  <dimension ref="A1:L4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.149999999999999" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="26.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.88671875" style="2" customWidth="1"/>
+    <col min="4" max="5" width="14.109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9" style="2"/>
+    <col min="10" max="10" width="12.109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="15.109375" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="1" customFormat="1" ht="99.1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H1:L1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61F18463-514A-4928-8B8E-48B2B83E3832}">
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E7" sqref="B7:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.149999999999999" x14ac:dyDescent="0.45"/>
